--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta\MATLAB Drive\小笠原研_空中回収\経路計画用モデル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E52B91F-6658-4C33-9D57-B3303B408453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CB2CB-F9D8-4A7F-8C38-8A9A139B2604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Aircraft_Model" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1631,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1882,7 +1881,7 @@
         <v>97</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -1968,7 +1967,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CB2CB-F9D8-4A7F-8C38-8A9A139B2604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32066055-C839-46D4-89F8-D15E1A51CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -889,9 +889,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1008,7 +1008,7 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1210,7 +1210,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1288,9 +1288,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1407,9 +1407,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,13 +1630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1747,7 +1747,7 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -1998,10 +1998,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32066055-C839-46D4-89F8-D15E1A51CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D552ACA9-CE2B-4804-AF0D-E23FFC98141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -889,9 +889,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1008,7 +1008,7 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1210,7 +1210,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1288,9 +1288,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1407,9 +1407,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1631,12 +1631,12 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1705,7 +1705,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1881,7 +1881,7 @@
         <v>97</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -2001,7 +2001,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D552ACA9-CE2B-4804-AF0D-E23FFC98141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A41274-3731-4CD8-A991-628583087124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19090" yWindow="3670" windowWidth="16200" windowHeight="9970" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -889,9 +889,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1008,7 +1008,7 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1210,7 +1210,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1288,9 +1288,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1407,9 +1407,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,13 +1630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1881,7 +1881,7 @@
         <v>97</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -2001,7 +2001,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A41274-3731-4CD8-A991-628583087124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0A77C-D9F2-44C6-A82D-97DD6E234D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19090" yWindow="3670" windowWidth="16200" windowHeight="9970" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1881,7 +1881,7 @@
         <v>97</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tusedu-my.sharepoint.com/personal/7522095_ed_tus_ac_jp/Documents/小笠原研/空パラ/空中回収の研究/senior_thesis_MAR/senior_thesis_MAR/MPC+FF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32066055-C839-46D4-89F8-D15E1A51CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32066055-C839-46D4-89F8-D15E1A51CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5DEC7A-F027-417B-90B0-96C6E18134E5}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19090" yWindow="3670" windowWidth="16200" windowHeight="9970" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -618,6 +618,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1881,7 +1885,7 @@
         <v>97</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tusedu-my.sharepoint.com/personal/7522095_ed_tus_ac_jp/Documents/小笠原研/空パラ/空中回収の研究/senior_thesis_MAR/senior_thesis_MAR/MPC+FF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32066055-C839-46D4-89F8-D15E1A51CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5DEC7A-F027-417B-90B0-96C6E18134E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6152B50-90B6-4CEF-9AE8-A31B4404B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19090" yWindow="3670" windowWidth="16200" windowHeight="9970" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payload_Model (2)" sheetId="7" r:id="rId1"/>
@@ -618,10 +618,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,9 +889,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1012,7 +1008,7 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1214,7 +1210,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1292,9 +1288,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1411,9 +1407,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1634,13 +1630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1709,7 +1705,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>3560</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2005,7 +2001,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/MPC+FF/parafoil_parameters_ref.xlsx
+++ b/MPC+FF/parafoil_parameters_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6152B50-90B6-4CEF-9AE8-A31B4404B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D1BA88-0522-4CEF-B362-7BC29C5BBCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="Payload_Model" sheetId="2" r:id="rId4"/>
     <sheet name="Aero_Coeffs" sheetId="3" r:id="rId5"/>
     <sheet name="Simulation_Settings" sheetId="4" r:id="rId6"/>
-    <sheet name="Aircraft_Model" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Aircraft_Model" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1004,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1630,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1705,7 +1706,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>3560</v>
+        <v>3660</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1994,11 +1995,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998B66C2-795C-466D-A754-64574850800F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D406E0-F282-44D1-B150-065EAC59E72D}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
